--- a/sell.xlsx
+++ b/sell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weap\Desktop\Programowanie\python\excel_file_merge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0230A838-AEE1-4DC0-AD22-BFEC4224FB89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36F7EBE-AA17-4857-AAFC-628D8A5559C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="7185" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21255" yWindow="2670" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>11</v>
